--- a/docs/StructureDefinition-oxygen-saturation-arterial-blood.xlsx
+++ b/docs/StructureDefinition-oxygen-saturation-arterial-blood.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.0</t>
+    <t>0.4.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-oxygen-saturation-arterial-blood.xlsx
+++ b/docs/StructureDefinition-oxygen-saturation-arterial-blood.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0</t>
+    <t>0.4.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-oxygen-saturation-arterial-blood.xlsx
+++ b/docs/StructureDefinition-oxygen-saturation-arterial-blood.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.1</t>
+    <t>0.4.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-oxygen-saturation-arterial-blood.xlsx
+++ b/docs/StructureDefinition-oxygen-saturation-arterial-blood.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.2</t>
+    <t>0.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -383,7 +383,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -519,7 +519,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
+    <t xml:space="preserve">Reference(CarePlan|4.0.1|DeviceRequest|4.0.1|ImmunizationRecommendation|4.0.1|MedicationRequest|4.0.1|NutritionOrder|4.0.1|ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -548,7 +548,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
+    <t xml:space="preserve">Reference(MedicationAdministration|4.0.1|MedicationDispense|4.0.1|MedicationStatement|4.0.1|Procedure|4.0.1|Immunization|4.0.1|ImagingStudy|4.0.1)
 </t>
   </si>
   <si>
@@ -628,7 +628,7 @@
     <t>Codes for high level observation categories.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-category|4.0.1</t>
   </si>
   <si>
     <t>value:coding.code}
@@ -922,7 +922,7 @@
     <t>This identifies the vital sign result type.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-vitalsignresult</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-vitalsignresult|4.0.1</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1047,7 +1047,7 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1070,7 +1070,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -1169,7 +1169,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1|CareTeam|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1)
 </t>
   </si>
   <si>
@@ -1410,7 +1410,7 @@
     <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason|4.0.1</t>
   </si>
   <si>
     <t>obs-6
@@ -1498,7 +1498,7 @@
     <t>Codes describing anatomical locations. May include laterality.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
   </si>
   <si>
     <t>&lt; 123037004 |Body structure|</t>
@@ -1531,7 +1531,7 @@
     <t>Methods for simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-methods</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-methods|4.0.1</t>
   </si>
   <si>
     <t>OBX-17</t>
@@ -1543,7 +1543,7 @@
     <t>Observation.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Specimen)
+    <t xml:space="preserve">Reference(Specimen|4.0.1)
 </t>
   </si>
   <si>
@@ -1571,7 +1571,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|DeviceMetric)
+    <t xml:space="preserve">Reference(Device|4.0.1|DeviceMetric|4.0.1)
 </t>
   </si>
   <si>
@@ -1651,7 +1651,7 @@
     <t>Observation.referenceRange.low</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
 </t>
   </si>
   <si>
@@ -1701,7 +1701,7 @@
     <t>Code for the meaning of a reference range.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning|4.0.1</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values| OR  @@ -1734,7 +1734,7 @@
     <t>Codes identifying the population the reference range applies to.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto|4.0.1</t>
   </si>
   <si>
     <t>Observation.referenceRange.age</t>
@@ -1771,7 +1771,7 @@
     <t>Observation.hasMember</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(QuestionnaireResponse|MolecularSequence|vitalsigns)
+    <t xml:space="preserve">Reference(QuestionnaireResponse|4.0.1|MolecularSequence|4.0.1|vitalsigns|4.0.1)
 </t>
   </si>
   <si>
@@ -1793,7 +1793,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|MolecularSequence|vitalsigns)
+    <t xml:space="preserve">Reference(DocumentReference|4.0.1|ImagingStudy|4.0.1|Media|4.0.1|QuestionnaireResponse|4.0.1|MolecularSequence|4.0.1|vitalsigns|4.0.1)
 </t>
   </si>
   <si>
@@ -1911,7 +1911,7 @@
     <t>Codes identifying interpretations of observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation|4.0.1</t>
   </si>
   <si>
     <t>Observation.component.referenceRange</t>
@@ -2261,7 +2261,7 @@
     <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="92.421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="119.96875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3862,7 +3862,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>177</v>
       </c>
@@ -4102,7 +4102,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
         <v>201</v>
       </c>
@@ -4464,7 +4464,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
         <v>216</v>
       </c>
@@ -4824,7 +4824,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>230</v>
       </c>
@@ -5066,7 +5066,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
         <v>248</v>
       </c>
@@ -5550,7 +5550,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
         <v>284</v>
       </c>
@@ -7118,7 +7118,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
         <v>322</v>
       </c>
@@ -7482,7 +7482,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
         <v>349</v>
       </c>
@@ -7964,7 +7964,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
         <v>391</v>
       </c>
@@ -8326,7 +8326,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
         <v>397</v>
       </c>
@@ -8570,7 +8570,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
         <v>418</v>
       </c>
@@ -8690,7 +8690,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
         <v>426</v>
       </c>
@@ -8810,7 +8810,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
         <v>435</v>
       </c>
@@ -8932,7 +8932,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
         <v>443</v>
       </c>
@@ -9054,7 +9054,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
         <v>452</v>
       </c>
@@ -11218,7 +11218,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" hidden="true">
+    <row r="75">
       <c r="A75" t="s" s="2">
         <v>575</v>
       </c>
@@ -11700,7 +11700,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" hidden="true">
+    <row r="79">
       <c r="A79" t="s" s="2">
         <v>585</v>
       </c>
@@ -11822,7 +11822,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80" hidden="true">
+    <row r="80">
       <c r="A80" t="s" s="2">
         <v>591</v>
       </c>
@@ -11944,7 +11944,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="81" hidden="true">
+    <row r="81">
       <c r="A81" t="s" s="2">
         <v>600</v>
       </c>
@@ -12312,12 +12312,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AP83">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/docs/StructureDefinition-oxygen-saturation-arterial-blood.xlsx
+++ b/docs/StructureDefinition-oxygen-saturation-arterial-blood.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.0</t>
+    <t>0.5.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-oxygen-saturation-arterial-blood.xlsx
+++ b/docs/StructureDefinition-oxygen-saturation-arterial-blood.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.1</t>
+    <t>0.5.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-oxygen-saturation-arterial-blood.xlsx
+++ b/docs/StructureDefinition-oxygen-saturation-arterial-blood.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.2</t>
+    <t>0.5.3</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-oxygen-saturation-arterial-blood.xlsx
+++ b/docs/StructureDefinition-oxygen-saturation-arterial-blood.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.3</t>
+    <t>0.5.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-oxygen-saturation-arterial-blood.xlsx
+++ b/docs/StructureDefinition-oxygen-saturation-arterial-blood.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.4</t>
+    <t>0.5.5</t>
   </si>
   <si>
     <t>Name</t>
